--- a/biology/Médecine/Denis_Riché/Denis_Riché.xlsx
+++ b/biology/Médecine/Denis_Riché/Denis_Riché.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Denis_Rich%C3%A9</t>
+          <t>Denis_Riché</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Denis Riché est un nutritionniste français spécialisé dans le sport ; il est considéré comme un expert de la sphère digestive et de l'immunité. Il est l'un des fondateurs de la revue Sport et Vie et a écrit de nombreux articles et ouvrages dans le domaine de la nutrition sportive.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Denis_Rich%C3%A9</t>
+          <t>Denis_Riché</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sportif de haut niveau, Denis Riché joue au handball en Championnat de France de handball masculin  de 1978 à 1987. Junior, il participera à plusieurs stages en équipe de France, mais arrêtera assez tôt sa carrière (26 ans). Parallèlement, il suit des études dans le domaine de la physiologie et de la nutrition à l'université de Jussieu. Après un bac C, un Deug de biologie et une licence de biochimie, il suit une maîtrise en physiologie (option nutrition) puis un DEA de nutrition et enfin un doctorat avec thèse d'État. Il fait son stage dans le service de médecine du sport du  professeur Creff[2]. Il est titulaire du diplôme du CESAM « épidémiologie et santé publique » ainsi que du DIU « micronutrition et alimentation-santé » des facultés de Dijon et Clermont-Ferrand. Il enseigne au sein du DIU de Dijon depuis 2003 ainsi qu'à l'UER STAPS de Font-Romeu entre 2007 et 2010. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sportif de haut niveau, Denis Riché joue au handball en Championnat de France de handball masculin  de 1978 à 1987. Junior, il participera à plusieurs stages en équipe de France, mais arrêtera assez tôt sa carrière (26 ans). Parallèlement, il suit des études dans le domaine de la physiologie et de la nutrition à l'université de Jussieu. Après un bac C, un Deug de biologie et une licence de biochimie, il suit une maîtrise en physiologie (option nutrition) puis un DEA de nutrition et enfin un doctorat avec thèse d'État. Il fait son stage dans le service de médecine du sport du  professeur Creff. Il est titulaire du diplôme du CESAM « épidémiologie et santé publique » ainsi que du DIU « micronutrition et alimentation-santé » des facultés de Dijon et Clermont-Ferrand. Il enseigne au sein du DIU de Dijon depuis 2003 ainsi qu'à l'UER STAPS de Font-Romeu entre 2007 et 2010. 
 En 1990, il co-fonde le magazine Sport &amp; Vie, expérience qui le confortera dans son plaisir d'écrire et lui donnera cette conviction dans le suivi des sportifs. Il publie alors son premier ouvrage de nutrition sportive, Équilibre nutritionnel des sports d'endurance.
 Depuis 2003, il est responsable du Département Diététique du Sport à l'Institut Européen de Diététique et de Micronutrition (I.E.D.M.) 
-Reconnu dans le monde du sport de haut niveau[3], il accompagne dans leur suivi nutritionnel, des personnalités comme les cyclistes de l’équipe Festina (jusqu'en 1997), Charly Mottet, Marie-José Pérec[4], Carole Merle ou les joueurs de l'équipe de football de Chelsea FC[5]. Aujourd'hui, Nicolas Reynes (champion de France Funboard 2008), Maxime Grésèque, Brice Loubet, Valérian Sauveplane, des cyclistes de différentes , ou équipes telles que FDJ, Cofidis, et bien d'autres lui font confiance. 
-Considéré comme le spécialiste français de la micronutrition et en particulier de ses applications dans le champ de la performance sportive[6], son livre Guide nutritionnel des sports d'endurance (1994) fait partie de la bibliographie de référence du Comité International Olympique (1992-2002). Il a, en outre, piloté une commission ministérielle sur le thème « Complémentation et suivi biologique du sportif » entre juin et septembre 2009.
+Reconnu dans le monde du sport de haut niveau, il accompagne dans leur suivi nutritionnel, des personnalités comme les cyclistes de l’équipe Festina (jusqu'en 1997), Charly Mottet, Marie-José Pérec, Carole Merle ou les joueurs de l'équipe de football de Chelsea FC. Aujourd'hui, Nicolas Reynes (champion de France Funboard 2008), Maxime Grésèque, Brice Loubet, Valérian Sauveplane, des cyclistes de différentes , ou équipes telles que FDJ, Cofidis, et bien d'autres lui font confiance. 
+Considéré comme le spécialiste français de la micronutrition et en particulier de ses applications dans le champ de la performance sportive, son livre Guide nutritionnel des sports d'endurance (1994) fait partie de la bibliographie de référence du Comité International Olympique (1992-2002). Il a, en outre, piloté une commission ministérielle sur le thème « Complémentation et suivi biologique du sportif » entre juin et septembre 2009.
 Co-responsable à Poitiers et à la Réunion du DIU Nutrition, micronutrition, exercice et santé, Denis Riché est consultant.
 En 2017, il est le premier à poser le terme d'épinutrition, pour décrire une manière moderne d'aborder les relations entre le contenu de notre assiette, sa valeur nutritionnelle, son possible caractère antigénique et son impact toxicologique, et notre santé, dans un ouvrage intitulé : L'Épinutrition du sportif. En 2021, il sort : "comment le microbiote gouverne le cerveau", toujours aux Editions De Boeck.
 </t>
